--- a/Lista IBrX50.xlsx
+++ b/Lista IBrX50.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>Ação</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>Q. Teórica</t>
+  </si>
+  <si>
+    <t>Critério de data</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Procurar</t>
+  </si>
+  <si>
+    <t>Não (IPO 2017)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +386,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -407,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -470,7 +488,7 @@
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +504,23 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,22 +824,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -820,8 +856,11 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +876,11 @@
       <c r="E2" s="3">
         <v>5.109</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +896,11 @@
       <c r="E3" s="3">
         <v>4.9409999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,8 +916,11 @@
       <c r="E4" s="3">
         <v>4.5190000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,8 +936,11 @@
       <c r="E5" s="3">
         <v>2.4260000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -905,8 +956,11 @@
       <c r="E6" s="3">
         <v>9.2140000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -922,8 +976,11 @@
       <c r="E7" s="3">
         <v>1.377</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -939,25 +996,31 @@
       <c r="E8" s="3">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13">
         <v>334937500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="14">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,8 +1036,11 @@
       <c r="E10" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -990,8 +1056,11 @@
       <c r="E11" s="3">
         <v>0.61199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1007,8 +1076,11 @@
       <c r="E12" s="3">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1024,8 +1096,11 @@
       <c r="E13" s="3">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1041,8 +1116,11 @@
       <c r="E14" s="3">
         <v>1.012</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1058,8 +1136,11 @@
       <c r="E15" s="3">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1075,8 +1156,11 @@
       <c r="E16" s="3">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1092,8 +1176,11 @@
       <c r="E17" s="3">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1109,8 +1196,11 @@
       <c r="E18" s="3">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1126,8 +1216,11 @@
       <c r="E19" s="3">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1143,8 +1236,11 @@
       <c r="E20" s="3">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1160,8 +1256,11 @@
       <c r="E21" s="3">
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1177,8 +1276,11 @@
       <c r="E22" s="3">
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1194,8 +1296,11 @@
       <c r="E23" s="3">
         <v>0.95499999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1211,8 +1316,11 @@
       <c r="E24" s="3">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1228,8 +1336,11 @@
       <c r="E25" s="3">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1245,8 +1356,11 @@
       <c r="E26" s="3">
         <v>3.5950000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1262,8 +1376,11 @@
       <c r="E27" s="3">
         <v>10.792</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -1279,25 +1396,31 @@
       <c r="E28" s="3">
         <v>2.202</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="F28" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="13">
         <v>591009862</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="14">
         <v>0.61899999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -1313,8 +1436,11 @@
       <c r="E30" s="3">
         <v>0.997</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -1330,8 +1456,11 @@
       <c r="E31" s="3">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -1347,8 +1476,11 @@
       <c r="E32" s="3">
         <v>2.4060000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1364,8 +1496,11 @@
       <c r="E33" s="3">
         <v>0.91800000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1381,8 +1516,11 @@
       <c r="E34" s="3">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -1398,8 +1536,11 @@
       <c r="E35" s="3">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -1415,8 +1556,11 @@
       <c r="E36" s="3">
         <v>0.878</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -1432,8 +1576,11 @@
       <c r="E37" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -1449,8 +1596,11 @@
       <c r="E38" s="3">
         <v>7.7060000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -1466,8 +1616,11 @@
       <c r="E39" s="3">
         <v>1.038</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -1483,8 +1636,11 @@
       <c r="E40" s="3">
         <v>1.476</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -1500,8 +1656,11 @@
       <c r="E41" s="3">
         <v>1.4850000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -1517,8 +1676,11 @@
       <c r="E42" s="3">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -1534,8 +1696,11 @@
       <c r="E43" s="3">
         <v>0.94499999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
@@ -1551,8 +1716,11 @@
       <c r="E44" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F44" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1568,8 +1736,11 @@
       <c r="E45" s="3">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F45" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -1585,8 +1756,11 @@
       <c r="E46" s="3">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1602,8 +1776,11 @@
       <c r="E47" s="3">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -1619,8 +1796,11 @@
       <c r="E48" s="3">
         <v>10.641</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -1636,8 +1816,11 @@
       <c r="E49" s="3">
         <v>1.3340000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F49" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -1653,8 +1836,11 @@
       <c r="E50" s="3">
         <v>0.16300000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -1670,8 +1856,11 @@
       <c r="E51" s="3">
         <v>1.014</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F51" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>3</v>
       </c>
@@ -1684,8 +1873,9 @@
         <f>SUM(E2:E51)</f>
         <v>99.999999999999986</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -1695,6 +1885,7 @@
         <v>93340310.237137496</v>
       </c>
       <c r="E53" s="9"/>
+      <c r="F53" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Lista IBrX50.xlsx
+++ b/Lista IBrX50.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>Ação</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Não (IPO 2017)</t>
+  </si>
+  <si>
+    <t>Não (Entender)</t>
   </si>
 </sst>
 </file>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,23 +1704,23 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="13">
         <v>751848759</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="14">
         <v>1.6040000000000001</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>118</v>
+      <c r="F44" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">

--- a/Lista IBrX50.xlsx
+++ b/Lista IBrX50.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan2" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId2"/>
+    <sheet name="Controle" sheetId="2" r:id="rId1"/>
+    <sheet name="Pesos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
   <si>
     <t>Ação</t>
   </si>
@@ -381,15 +381,20 @@
   </si>
   <si>
     <t>Não (Entender)</t>
+  </si>
+  <si>
+    <t>Não deixa rodar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="175" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -422,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +490,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -525,9 +537,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +868,7 @@
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1483,7 +1511,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
@@ -1503,7 +1531,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1523,7 +1551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -1543,7 +1571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
@@ -1583,7 +1611,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -1603,7 +1631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -1643,7 +1671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -1663,27 +1691,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="18">
         <v>372112887</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="19">
         <v>1.073</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
@@ -1703,7 +1734,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>98</v>
       </c>
@@ -1723,7 +1754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -1743,7 +1774,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -1763,7 +1794,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1783,7 +1814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -1897,12 +1928,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="22">
+        <v>1.0205402970314E-2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="21">
+        <v>1.1006981134414701E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1.6997143626213101E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="21">
+        <v>2.1389320492744401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22">
+        <v>9.6000432968139596E-3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1.03187710046768E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2.0845681428909298E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="21">
+        <v>2.87328511476517E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1.53200030326843E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="21">
+        <v>1.5738204121589699E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1.2514993548393199E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="21">
+        <v>1.2296915054321299E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22">
+        <v>5.3032338619232199E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="21">
+        <v>5.8149978518486002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2.7540028095245399E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1.10453367233276E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3.00468355417252E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="21">
+        <v>3.1246110796928399E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22">
+        <v>4.2544856667518602E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2.7405500411987301E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1.9897431135177598E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="21">
+        <v>2.15539634227753E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2.9746145009994498E-3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="21">
+        <v>3.8679391145706198E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="22">
+        <v>7.0401281118392901E-3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="21">
+        <v>7.4044167995452898E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1.85133963823318E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1.9843727350234999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1.8495753407478301E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="21">
+        <v>2.00339704751968E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1.9463196396827701E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="21">
+        <v>2.2428184747695899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="22">
+        <v>5.2720725536346401E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="21">
+        <v>5.3984552621841403E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="22">
+        <v>1.1198312044143699E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1.6776412725448601E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1.6872957348823499E-2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1.7462015151977501E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="22">
+        <v>2.7487441897392301E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="21">
+        <v>2.9045596718788098E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="22">
+        <v>1.7522215843200701E-2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="21">
+        <v>1.7835617065429701E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="22">
+        <v>3.02833765745163E-2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="21">
+        <v>1.8097981810569801E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="22">
+        <v>1.9537553191185001E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="21">
+        <v>2.3380979895591701E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1.31618082523346E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="21">
+        <v>1.4684632420539899E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="22">
+        <v>3.4456372261047398E-2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="21">
+        <v>8.8009685277938808E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="22">
+        <v>3.3468514680862399E-2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="21">
+        <v>3.5149976611137397E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="22">
+        <v>2.2154092788696299E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" s="21">
+        <v>2.4416044354438799E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2.4127081036567698E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="21">
+        <v>3.10169160366058E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="22">
+        <v>6.9707036018371599E-3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="21">
+        <v>1.5369728207588199E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="22">
+        <v>4.49936091899872E-3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="21">
+        <v>7.4144452810287502E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="22">
+        <v>2.7629956603050201E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="21">
+        <v>3.11166048049927E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="22">
+        <v>2.4226993322372398E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="21">
+        <v>2.8706848621368401E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="22">
+        <v>9.0640634298324602E-3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" s="21">
+        <v>1.3297826051712E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="22">
+        <v>2.2082656621933001E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="21">
+        <v>1.25094801187515E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1.9783154129982002E-2</v>
+      </c>
+      <c r="I35">
+        <v>36000</v>
+      </c>
+      <c r="M35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="21">
+        <v>2.1028488874435401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1.8988057971000699E-2</v>
+      </c>
+      <c r="I36">
+        <f>I35*0.35</f>
+        <v>12600</v>
+      </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="21">
+        <v>1.99665725231171E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="22">
+        <v>2.7664005756378202E-2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="21">
+        <v>2.4331405758857699E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="22">
+        <v>2.7082473039627099E-2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" s="21">
+        <v>3.2349199056625401E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="22">
+        <v>2.6804685592651398E-2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="21">
+        <v>3.0283838510513299E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2.27248966693878E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>100</v>
+      </c>
+      <c r="N40" s="21">
+        <v>2.4108424782753001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="22">
+        <v>2.9783174395561201E-2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" s="21">
+        <v>3.2681182026863098E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="22">
+        <v>2.4296715855598401E-2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>104</v>
+      </c>
+      <c r="N42" s="21">
+        <v>2.62444317340851E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="22">
+        <v>2.3487105965614302E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
+      <c r="N43" s="21">
+        <v>2.5662213563919099E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="22">
+        <v>3.1843170523643501E-2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="21">
+        <v>3.4460917115211501E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="22">
+        <v>4.7760754823684701E-3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" s="21">
+        <v>5.4378509521484401E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="22">
+        <v>2.54222452640533E-2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="21">
+        <v>2.9856905341148401E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lista IBrX50.xlsx
+++ b/Lista IBrX50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Controle" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="124">
   <si>
     <t>Ação</t>
   </si>
@@ -380,10 +380,13 @@
     <t>Não (IPO 2017)</t>
   </si>
   <si>
-    <t>Não (Entender)</t>
-  </si>
-  <si>
-    <t>Não deixa rodar</t>
+    <t>Cotação tudo errada</t>
+  </si>
+  <si>
+    <t>Não deixa rodar, existem linhas NULL na cotação, rever</t>
+  </si>
+  <si>
+    <t>Não (Arrumar)</t>
   </si>
 </sst>
 </file>
@@ -393,8 +396,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="175" formatCode="0.00000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -427,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,12 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +492,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -537,20 +534,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,23 +1677,23 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="13">
         <v>372112887</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="14">
         <v>1.073</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>118</v>
+      <c r="F42" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="G42" t="s">
         <v>122</v>
@@ -1751,6 +1736,9 @@
         <v>1.6040000000000001</v>
       </c>
       <c r="F44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1930,27 +1918,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="21"/>
+    <col min="2" max="2" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="18">
         <v>1.0205402970314E-2</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="17">
         <v>1.1006981134414701E-2</v>
       </c>
     </row>
@@ -1958,13 +1946,13 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>1.6997143626213101E-2</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="17">
         <v>2.1389320492744401E-2</v>
       </c>
     </row>
@@ -1972,13 +1960,13 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>9.6000432968139596E-3</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="17">
         <v>1.03187710046768E-2</v>
       </c>
     </row>
@@ -1986,13 +1974,13 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>2.0845681428909298E-2</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>2.87328511476517E-2</v>
       </c>
     </row>
@@ -2000,13 +1988,13 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>1.53200030326843E-2</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>1.5738204121589699E-2</v>
       </c>
     </row>
@@ -2014,13 +2002,13 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="18">
         <v>1.2514993548393199E-2</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <v>1.2296915054321299E-2</v>
       </c>
     </row>
@@ -2028,13 +2016,13 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="18">
         <v>5.3032338619232199E-2</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="17">
         <v>5.8149978518486002E-2</v>
       </c>
     </row>
@@ -2042,13 +2030,13 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="18">
         <v>2.7540028095245399E-2</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="17">
         <v>1.10453367233276E-2</v>
       </c>
     </row>
@@ -2056,13 +2044,13 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="18">
         <v>3.00468355417252E-2</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="17">
         <v>3.1246110796928399E-2</v>
       </c>
     </row>
@@ -2070,13 +2058,13 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="18">
         <v>4.2544856667518602E-2</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="17">
         <v>2.7405500411987301E-2</v>
       </c>
     </row>
@@ -2084,13 +2072,13 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="18">
         <v>1.9897431135177598E-2</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="17">
         <v>2.15539634227753E-2</v>
       </c>
     </row>
@@ -2098,13 +2086,13 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="18">
         <v>2.9746145009994498E-3</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="17">
         <v>3.8679391145706198E-3</v>
       </c>
     </row>
@@ -2112,13 +2100,13 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="18">
         <v>7.0401281118392901E-3</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="17">
         <v>7.4044167995452898E-3</v>
       </c>
     </row>
@@ -2126,13 +2114,13 @@
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="18">
         <v>1.85133963823318E-2</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="17">
         <v>1.9843727350234999E-2</v>
       </c>
     </row>
@@ -2140,13 +2128,13 @@
       <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="18">
         <v>1.8495753407478301E-2</v>
       </c>
       <c r="M15" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="17">
         <v>2.00339704751968E-2</v>
       </c>
     </row>
@@ -2154,13 +2142,13 @@
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="18">
         <v>1.9463196396827701E-2</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="17">
         <v>2.2428184747695899E-2</v>
       </c>
     </row>
@@ -2168,13 +2156,13 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>5.2720725536346401E-2</v>
       </c>
       <c r="M17" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="17">
         <v>5.3984552621841403E-2</v>
       </c>
     </row>
@@ -2182,13 +2170,13 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <v>1.1198312044143699E-2</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="17">
         <v>1.6776412725448601E-2</v>
       </c>
     </row>
@@ -2196,13 +2184,13 @@
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <v>1.6872957348823499E-2</v>
       </c>
       <c r="M19" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="17">
         <v>1.7462015151977501E-2</v>
       </c>
     </row>
@@ -2210,13 +2198,13 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="18">
         <v>2.7487441897392301E-2</v>
       </c>
       <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="17">
         <v>2.9045596718788098E-2</v>
       </c>
     </row>
@@ -2224,13 +2212,13 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <v>1.7522215843200701E-2</v>
       </c>
       <c r="M21" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="17">
         <v>1.7835617065429701E-2</v>
       </c>
     </row>
@@ -2238,13 +2226,13 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="18">
         <v>3.02833765745163E-2</v>
       </c>
       <c r="M22" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="17">
         <v>1.8097981810569801E-2</v>
       </c>
     </row>
@@ -2252,13 +2240,13 @@
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="18">
         <v>1.9537553191185001E-2</v>
       </c>
       <c r="M23" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="17">
         <v>2.3380979895591701E-2</v>
       </c>
     </row>
@@ -2266,13 +2254,13 @@
       <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="18">
         <v>1.31618082523346E-2</v>
       </c>
       <c r="M24" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="17">
         <v>1.4684632420539899E-2</v>
       </c>
     </row>
@@ -2280,13 +2268,13 @@
       <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="18">
         <v>3.4456372261047398E-2</v>
       </c>
       <c r="M25" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="17">
         <v>8.8009685277938808E-3</v>
       </c>
     </row>
@@ -2294,13 +2282,13 @@
       <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="18">
         <v>3.3468514680862399E-2</v>
       </c>
       <c r="M26" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="17">
         <v>3.5149976611137397E-2</v>
       </c>
     </row>
@@ -2308,13 +2296,13 @@
       <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="18">
         <v>2.2154092788696299E-2</v>
       </c>
       <c r="M27" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="17">
         <v>2.4416044354438799E-2</v>
       </c>
     </row>
@@ -2322,13 +2310,13 @@
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="18">
         <v>2.4127081036567698E-2</v>
       </c>
       <c r="M28" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="17">
         <v>3.10169160366058E-3</v>
       </c>
     </row>
@@ -2336,13 +2324,13 @@
       <c r="A29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="18">
         <v>6.9707036018371599E-3</v>
       </c>
       <c r="M29" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="17">
         <v>1.5369728207588199E-2</v>
       </c>
     </row>
@@ -2350,13 +2338,13 @@
       <c r="A30" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="18">
         <v>4.49936091899872E-3</v>
       </c>
       <c r="M30" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="17">
         <v>7.4144452810287502E-3</v>
       </c>
     </row>
@@ -2364,13 +2352,13 @@
       <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="18">
         <v>2.7629956603050201E-2</v>
       </c>
       <c r="M31" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="17">
         <v>3.11166048049927E-2</v>
       </c>
     </row>
@@ -2378,13 +2366,13 @@
       <c r="A32" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="18">
         <v>2.4226993322372398E-2</v>
       </c>
       <c r="M32" t="s">
         <v>80</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="17">
         <v>2.8706848621368401E-2</v>
       </c>
     </row>
@@ -2392,13 +2380,13 @@
       <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="18">
         <v>9.0640634298324602E-3</v>
       </c>
       <c r="M33" t="s">
         <v>82</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="17">
         <v>1.3297826051712E-2</v>
       </c>
     </row>
@@ -2406,13 +2394,13 @@
       <c r="A34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="18">
         <v>2.2082656621933001E-2</v>
       </c>
       <c r="M34" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="17">
         <v>1.25094801187515E-2</v>
       </c>
     </row>
@@ -2420,7 +2408,7 @@
       <c r="A35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="18">
         <v>1.9783154129982002E-2</v>
       </c>
       <c r="I35">
@@ -2429,7 +2417,7 @@
       <c r="M35" t="s">
         <v>86</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="17">
         <v>2.1028488874435401E-2</v>
       </c>
     </row>
@@ -2437,7 +2425,7 @@
       <c r="A36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="18">
         <v>1.8988057971000699E-2</v>
       </c>
       <c r="I36">
@@ -2447,7 +2435,7 @@
       <c r="M36" t="s">
         <v>87</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="17">
         <v>1.99665725231171E-2</v>
       </c>
     </row>
@@ -2455,13 +2443,13 @@
       <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="18">
         <v>2.7664005756378202E-2</v>
       </c>
       <c r="M37" t="s">
         <v>89</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="17">
         <v>2.4331405758857699E-2</v>
       </c>
     </row>
@@ -2469,13 +2457,13 @@
       <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="18">
         <v>2.7082473039627099E-2</v>
       </c>
       <c r="M38" t="s">
         <v>91</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="17">
         <v>3.2349199056625401E-2</v>
       </c>
     </row>
@@ -2483,13 +2471,13 @@
       <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="18">
         <v>2.6804685592651398E-2</v>
       </c>
       <c r="M39" t="s">
         <v>96</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="17">
         <v>3.0283838510513299E-2</v>
       </c>
     </row>
@@ -2497,13 +2485,13 @@
       <c r="A40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="18">
         <v>2.27248966693878E-2</v>
       </c>
       <c r="M40" t="s">
         <v>100</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="17">
         <v>2.4108424782753001E-2</v>
       </c>
     </row>
@@ -2511,13 +2499,13 @@
       <c r="A41" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="18">
         <v>2.9783174395561201E-2</v>
       </c>
       <c r="M41" t="s">
         <v>102</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="17">
         <v>3.2681182026863098E-2</v>
       </c>
     </row>
@@ -2525,13 +2513,13 @@
       <c r="A42" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="18">
         <v>2.4296715855598401E-2</v>
       </c>
       <c r="M42" t="s">
         <v>104</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="17">
         <v>2.62444317340851E-2</v>
       </c>
     </row>
@@ -2539,13 +2527,13 @@
       <c r="A43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="18">
         <v>2.3487105965614302E-2</v>
       </c>
       <c r="M43" t="s">
         <v>106</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N43" s="17">
         <v>2.5662213563919099E-2</v>
       </c>
     </row>
@@ -2553,13 +2541,13 @@
       <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="18">
         <v>3.1843170523643501E-2</v>
       </c>
       <c r="M44" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="17">
         <v>3.4460917115211501E-2</v>
       </c>
     </row>
@@ -2567,13 +2555,13 @@
       <c r="A45" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="18">
         <v>4.7760754823684701E-3</v>
       </c>
       <c r="M45" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="17">
         <v>5.4378509521484401E-3</v>
       </c>
     </row>
@@ -2581,13 +2569,13 @@
       <c r="A46" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="18">
         <v>2.54222452640533E-2</v>
       </c>
       <c r="M46" t="s">
         <v>113</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="17">
         <v>2.9856905341148401E-2</v>
       </c>
     </row>
